--- a/car_inventory_pivot.xlsx
+++ b/car_inventory_pivot.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thile\Documents\GitHub\ExcelPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EBA9A0-ABD9-4ED8-87B5-EE42A135338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7120AD39-C7ED-4B1D-A057-7174870113CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="car_inventory" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -404,7 +415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1440,7 +1451,817 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>car_inventory!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Miles </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>car_inventory!$G$2:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Camrey</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Caravan</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Civic</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Camero</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Corola</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Elantra</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Focus</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Odyssey</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PT Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Silverado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>car_inventory!$H$2:$H$66</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>3708.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13682.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13867.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14289.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19341.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19421.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28464.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22128.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17556.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20223.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24513.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40326.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27394.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22188.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22521.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36438.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31144.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29102.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37558.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44974.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42074.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30555.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33477.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46311.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52699.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29601.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27534.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27637.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64467.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44946.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68658.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52229.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69891.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67829.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50854.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79420.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83162.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>77243.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60389.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82374</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64542</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80685.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48114.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>73444.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93382.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>85928</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72527.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>114660.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEB4-4AA6-BF24-42AF31F29F50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="398574304"/>
+        <c:axId val="398571680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="398574304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Age of the car</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398571680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398571680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miles</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Driven</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398574304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1983,6 +2804,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2024,8 +3361,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>537210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FCFDFF-F4A9-42BC-BF99-A8EF929A3249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="uma thileepan" refreshedDate="44434.394811805556" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="52">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="uma thileepan" refreshedDate="44434.394811805556" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="52" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N53" sheet="car_inventory"/>
   </cacheSource>
@@ -2937,7 +4315,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -3360,10 +4738,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -3532,10 +4910,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3593,47 +4973,47 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B2" t="str">
         <f>LEFT(A2,2)</f>
-        <v>FD</v>
+        <v>HO</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,C$56:D$61,2)</f>
-        <v>Ford</v>
+        <v>Honda</v>
       </c>
       <c r="D2" t="str">
         <f>MID(A2,5,3)</f>
-        <v>MTG</v>
+        <v>ODY</v>
       </c>
       <c r="E2" t="str">
         <f>VLOOKUP(D2,F$56:G$66,2)</f>
-        <v>Mustang</v>
+        <v>Odyssey</v>
       </c>
       <c r="F2" t="str">
         <f>MID(A2,3,2)</f>
-        <v>06</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <f>IF(21-F2&lt;0,100-F2+21,21-F2)</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
-        <v>40326.800000000003</v>
+        <v>3708.1</v>
       </c>
       <c r="I2" s="3">
         <f>H2/(G2+0.5)</f>
-        <v>2601.7290322580648</v>
+        <v>494.4133333333333</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M2" t="str">
         <f>IF(H2&lt;=L2,"Y","Not Covered")</f>
@@ -3641,1527 +5021,1527 @@
       </c>
       <c r="N2" t="str">
         <f>_xlfn.CONCAT(B2,F2,D2,UPPER(LEFT(J2,3)),RIGHT(A2,3))</f>
-        <v>FD06MTGBLA001</v>
+        <v>HO14ODYBLA041</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B53" si="0">LEFT(A3,2)</f>
+        <f>LEFT(A3,2)</f>
         <v>FD</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C53" si="1">VLOOKUP(B3,C$56:D$61,2)</f>
+        <f>VLOOKUP(B3,C$56:D$61,2)</f>
         <v>Ford</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D53" si="2">MID(A3,5,3)</f>
-        <v>MTG</v>
+        <f>MID(A3,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E53" si="3">VLOOKUP(D3,F$56:G$66,2)</f>
-        <v>Mustang</v>
+        <f>VLOOKUP(D3,F$56:G$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F53" si="4">MID(A3,3,2)</f>
-        <v>06</v>
+        <f>MID(A3,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G53" si="5">IF(21-F3&lt;0,100-F3+21,21-F3)</f>
+        <f>IF(21-F3&lt;0,100-F3+21,21-F3)</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="3">
+        <v>13682.9</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3/(G3+0.5)</f>
+        <v>1609.7529411764706</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3">
-        <v>44974.8</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I5" si="6">H3/(G3+0.5)</f>
-        <v>2901.6000000000004</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M53" si="7">IF(H3&lt;=L3,"Y","Not Covered")</f>
+        <f>IF(H3&lt;=L3,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N53" si="8">_xlfn.CONCAT(B3,F3,D3,UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
-        <v>FD06MTGWHI002</v>
+        <f>_xlfn.CONCAT(B3,F3,D3,UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
+        <v>FD13FCSBLA013</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A4,2)</f>
+        <v>HO</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B4,C$56:D$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A4,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D4,F$56:G$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A4,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G4">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(21-F4&lt;0,100-F4+21,21-F4)</f>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>44946.5</v>
+        <v>13867.6</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="6"/>
-        <v>3329.3703703703704</v>
+        <f>H4/(G4+0.5)</f>
+        <v>1631.4823529411765</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L4">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H4&lt;=L4,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGGRE003</v>
+        <f>_xlfn.CONCAT(B4,F4,D4,UPPER(LEFT(J4,3)),RIGHT(A4,3))</f>
+        <v>HO13CIVBLA036</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A5,2)</f>
+        <v>GM</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B5,C$56:D$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A5,5,3)</f>
+        <v>CMR</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D5,F$56:G$66,2)</f>
+        <v>Camero</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A5,3,2)</f>
+        <v>14</v>
       </c>
       <c r="G5">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(21-F5&lt;0,100-F5+21,21-F5)</f>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>37558.800000000003</v>
+        <v>14289.6</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="6"/>
-        <v>2782.1333333333337</v>
+        <f>H5/(G5+0.5)</f>
+        <v>1905.28</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="L5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H5&lt;=L5,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGBLA004</v>
+        <f>_xlfn.CONCAT(B5,F5,D5,UPPER(LEFT(J5,3)),RIGHT(A5,3))</f>
+        <v>GM14CMRWHI016</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A6,2)</f>
+        <v>HO</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B6,C$56:D$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A6,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D6,F$56:G$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A6,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(21-F6&lt;0,100-F6+21,21-F6)</f>
+        <v>11</v>
       </c>
       <c r="H6" s="3">
-        <v>36438.5</v>
+        <v>22573</v>
       </c>
       <c r="I6" s="3">
         <f>H6/(G6+0.5)</f>
-        <v>2699.1481481481483</v>
+        <v>1962.8695652173913</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L6">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H6&lt;=L6,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGWHI005</v>
+        <f>_xlfn.CONCAT(B6,F6,D6,UPPER(LEFT(J6,3)),RIGHT(A6,3))</f>
+        <v>HO10CIVBLU032</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A7,2)</f>
         <v>FD</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B7,C$56:D$61,2)</f>
         <v>Ford</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A7,5,3)</f>
         <v>FCS</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D7,F$56:G$66,2)</f>
         <v>Focus</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
+        <f>MID(A7,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>IF(21-F7&lt;0,100-F7+21,21-F7)</f>
+        <v>9</v>
       </c>
       <c r="H7" s="3">
-        <v>46311.4</v>
+        <v>19341.7</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" ref="I7:I53" si="9">H7/(G7+0.5)</f>
-        <v>2987.8322580645163</v>
+        <f>H7/(G7+0.5)</f>
+        <v>2035.9684210526316</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L7">
         <v>75000</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H7&lt;=L7,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="8"/>
-        <v>FD06FCSGRE006</v>
+        <f>_xlfn.CONCAT(B7,F7,D7,UPPER(LEFT(J7,3)),RIGHT(A7,3))</f>
+        <v>FD12FCSWHI011</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A8,2)</f>
+        <v>GM</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B8,C$56:D$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A8,5,3)</f>
+        <v>CMR</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D8,F$56:G$66,2)</f>
+        <v>Camero</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
+        <f>MID(A8,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
+        <f>IF(21-F8&lt;0,100-F8+21,21-F8)</f>
+        <v>9</v>
+      </c>
+      <c r="H8" s="3">
+        <v>19421.099999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <f>H8/(G8+0.5)</f>
+        <v>2044.3263157894735</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3">
-        <v>52229.5</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="9"/>
-        <v>3369.6451612903224</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L8">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H8&lt;=L8,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="8"/>
-        <v>FD06FCSGRE007</v>
+        <f>_xlfn.CONCAT(B8,F8,D8,UPPER(LEFT(J8,3)),RIGHT(A8,3))</f>
+        <v>GM12CMRBLA015</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A9,2)</f>
+        <v>GM</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B9,C$56:D$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A9,5,3)</f>
+        <v>CMR</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D9,F$56:G$66,2)</f>
+        <v>Camero</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A9,3,2)</f>
         <v>09</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f>IF(21-F9&lt;0,100-F9+21,21-F9)</f>
         <v>12</v>
       </c>
       <c r="H9" s="3">
-        <v>35137</v>
+        <v>28464.799999999999</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="9"/>
-        <v>2810.96</v>
+        <f>H9/(G9+0.5)</f>
+        <v>2277.1839999999997</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L9">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H9&lt;=L9,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="8"/>
-        <v>FD09FCSBLA008</v>
+        <f>_xlfn.CONCAT(B9,F9,D9,UPPER(LEFT(J9,3)),RIGHT(A9,3))</f>
+        <v>GM09CMRWHI014</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A10,2)</f>
+        <v>TY</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B10,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A10,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D10,F$56:G$66,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A10,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IF(21-F10&lt;0,100-F10+21,21-F10)</f>
+        <v>9</v>
       </c>
       <c r="H10" s="3">
-        <v>27637.1</v>
+        <v>22128.2</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="9"/>
-        <v>3251.4235294117643</v>
+        <f>H10/(G10+0.5)</f>
+        <v>2329.2842105263157</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L10">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H10&lt;=L10,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA009</v>
+        <f>_xlfn.CONCAT(B10,F10,D10,UPPER(LEFT(J10,3)),RIGHT(A10,3))</f>
+        <v>TY12CAMBLU029</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A11,2)</f>
+        <v>TY</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B11,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A11,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D11,F$56:G$66,2)</f>
+        <v>Corola</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A11,3,2)</f>
+        <v>14</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IF(21-F11&lt;0,100-F11+21,21-F11)</f>
+        <v>7</v>
       </c>
       <c r="H11" s="3">
-        <v>27534.799999999999</v>
+        <v>17556.3</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="9"/>
-        <v>3239.3882352941177</v>
+        <f>H11/(G11+0.5)</f>
+        <v>2340.8399999999997</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
         <v>32</v>
       </c>
       <c r="L11">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H11&lt;=L11,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSWHI010</v>
+        <f>_xlfn.CONCAT(B11,F11,D11,UPPER(LEFT(J11,3)),RIGHT(A11,3))</f>
+        <v>TY14CORBLU027</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A12,2)</f>
+        <v>HY</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B12,C$56:D$61,2)</f>
+        <v>Hundai</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A12,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D12,F$56:G$66,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A12,3,2)</f>
         <v>12</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f>IF(21-F12&lt;0,100-F12+21,21-F12)</f>
         <v>9</v>
       </c>
       <c r="H12" s="3">
-        <v>19341.7</v>
+        <v>22282</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="9"/>
-        <v>2035.9684210526316</v>
+        <f>H12/(G12+0.5)</f>
+        <v>2345.4736842105262</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L12">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H12&lt;=L12,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="8"/>
-        <v>FD12FCSWHI011</v>
+        <f>_xlfn.CONCAT(B12,F12,D12,UPPER(LEFT(J12,3)),RIGHT(A12,3))</f>
+        <v>HY12ELABLU050</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A13,2)</f>
+        <v>HY</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B13,C$56:D$61,2)</f>
+        <v>Hundai</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A13,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D13,F$56:G$66,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A13,3,2)</f>
         <v>13</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f>IF(21-F13&lt;0,100-F13+21,21-F13)</f>
         <v>8</v>
       </c>
       <c r="H13" s="3">
-        <v>22521.599999999999</v>
+        <v>20223.900000000001</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="9"/>
-        <v>2649.6</v>
+        <f>H13/(G13+0.5)</f>
+        <v>2379.2823529411767</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L13">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H13&lt;=L13,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA012</v>
+        <f>_xlfn.CONCAT(B13,F13,D13,UPPER(LEFT(J13,3)),RIGHT(A13,3))</f>
+        <v>HY13ELABLA051</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A14,2)</f>
+        <v>HO</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B14,C$56:D$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A14,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D14,F$56:G$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A14,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IF(21-F14&lt;0,100-F14+21,21-F14)</f>
+        <v>9</v>
       </c>
       <c r="H14" s="3">
-        <v>13682.9</v>
+        <v>24513.200000000001</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="9"/>
-        <v>1609.7529411764706</v>
+        <f>H14/(G14+0.5)</f>
+        <v>2580.3368421052633</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L14">
         <v>75000</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H14&lt;=L14,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA013</v>
+        <f>_xlfn.CONCAT(B14,F14,D14,UPPER(LEFT(J14,3)),RIGHT(A14,3))</f>
+        <v>HO12CIVBLA035</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A15,2)</f>
+        <v>FD</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B15,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR</v>
+        <f>MID(A15,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="3"/>
-        <v>Camero</v>
+        <f>VLOOKUP(D15,F$56:G$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(A15,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(21-F15&lt;0,100-F15+21,21-F15)</f>
+        <v>15</v>
       </c>
       <c r="H15" s="3">
-        <v>28464.799999999999</v>
+        <v>40326.800000000003</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="9"/>
-        <v>2277.1839999999997</v>
+        <f>H15/(G15+0.5)</f>
+        <v>2601.7290322580648</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="L15">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H15&lt;=L15,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="8"/>
-        <v>GM09CMRWHI014</v>
+        <f>_xlfn.CONCAT(B15,F15,D15,UPPER(LEFT(J15,3)),RIGHT(A15,3))</f>
+        <v>FD06MTGBLA001</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A16,2)</f>
+        <v>CR</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B16,C$56:D$61,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR</v>
+        <f>MID(A16,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="3"/>
-        <v>Camero</v>
+        <f>VLOOKUP(D16,F$56:G$66,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A16,3,2)</f>
+        <v>11</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>IF(21-F16&lt;0,100-F16+21,21-F16)</f>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
-        <v>19421.099999999999</v>
+        <v>27394.2</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="9"/>
-        <v>2044.3263157894735</v>
+        <f>H16/(G16+0.5)</f>
+        <v>2608.9714285714285</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L16">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H16&lt;=L16,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="8"/>
-        <v>GM12CMRBLA015</v>
+        <f>_xlfn.CONCAT(B16,F16,D16,UPPER(LEFT(J16,3)),RIGHT(A16,3))</f>
+        <v>CR11PTCBLA044</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A17,2)</f>
+        <v>HY</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B17,C$56:D$61,2)</f>
+        <v>Hundai</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR</v>
+        <f>MID(A17,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="3"/>
-        <v>Camero</v>
+        <f>VLOOKUP(D17,F$56:G$66,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A17,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f>IF(21-F17&lt;0,100-F17+21,21-F17)</f>
+        <v>8</v>
       </c>
       <c r="H17" s="3">
-        <v>14289.6</v>
+        <v>22188.5</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="9"/>
-        <v>1905.28</v>
+        <f>H17/(G17+0.5)</f>
+        <v>2610.4117647058824</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L17">
         <v>100000</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H17&lt;=L17,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="8"/>
-        <v>GM14CMRWHI016</v>
+        <f>_xlfn.CONCAT(B17,F17,D17,UPPER(LEFT(J17,3)),RIGHT(A17,3))</f>
+        <v>HY13ELABLU052</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A18,2)</f>
+        <v>FD</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B18,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>SLV</v>
+        <f>MID(A18,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="3"/>
-        <v>Silverado</v>
+        <f>VLOOKUP(D18,F$56:G$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A18,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>IF(21-F18&lt;0,100-F18+21,21-F18)</f>
+        <v>8</v>
       </c>
       <c r="H18" s="3">
-        <v>31144.400000000001</v>
+        <v>22521.599999999999</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="9"/>
-        <v>2708.2086956521739</v>
+        <f>H18/(G18+0.5)</f>
+        <v>2649.6</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L18">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H18&lt;=L18,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="8"/>
-        <v>GM10SLVBLA017</v>
+        <f>_xlfn.CONCAT(B18,F18,D18,UPPER(LEFT(J18,3)),RIGHT(A18,3))</f>
+        <v>FD13FCSBLA012</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A19,2)</f>
+        <v>FD</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B19,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>SLV</v>
+        <f>MID(A19,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v>Silverado</v>
+        <f>VLOOKUP(D19,F$56:G$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f>MID(A19,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>IF(21-F19&lt;0,100-F19+21,21-F19)</f>
+        <v>13</v>
       </c>
       <c r="H19" s="3">
-        <v>83162.7</v>
+        <v>36438.5</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="9"/>
-        <v>3538.8382978723403</v>
+        <f>H19/(G19+0.5)</f>
+        <v>2699.1481481481483</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="L19">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H19&lt;=L19,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="8"/>
-        <v>GM98SLVBLA018</v>
+        <f>_xlfn.CONCAT(B19,F19,D19,UPPER(LEFT(J19,3)),RIGHT(A19,3))</f>
+        <v>FD08MTGWHI005</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A20,2)</f>
         <v>GM</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B20,C$56:D$61,2)</f>
         <v>General Motors</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A20,5,3)</f>
         <v>SLV</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D20,F$56:G$66,2)</f>
         <v>Silverado</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f>MID(A20,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f>IF(21-F20&lt;0,100-F20+21,21-F20)</f>
+        <v>11</v>
       </c>
       <c r="H20" s="3">
-        <v>80685.8</v>
+        <v>31144.400000000001</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="9"/>
-        <v>3752.8279069767445</v>
+        <f>H20/(G20+0.5)</f>
+        <v>2708.2086956521739</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L20">
         <v>100000</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H20&lt;=L20,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="8"/>
-        <v>GM00SLVBLU019</v>
+        <f>_xlfn.CONCAT(B20,F20,D20,UPPER(LEFT(J20,3)),RIGHT(A20,3))</f>
+        <v>GM10SLVBLA017</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A21,2)</f>
+        <v>HY</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B21,C$56:D$61,2)</f>
+        <v>Hundai</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A21,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D21,F$56:G$66,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
-        <v>96</v>
+        <f>MID(A21,3,2)</f>
+        <v>11</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f>IF(21-F21&lt;0,100-F21+21,21-F21)</f>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>114660.6</v>
+        <v>29102.3</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="9"/>
-        <v>4496.4941176470593</v>
+        <f>H21/(G21+0.5)</f>
+        <v>2771.6476190476192</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L21">
         <v>100000</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="7"/>
-        <v>Not Covered</v>
+        <f>IF(H21&lt;=L21,"Y","Not Covered")</f>
+        <v>Y</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="8"/>
-        <v>TY96CAMGRE020</v>
+        <f>_xlfn.CONCAT(B21,F21,D21,UPPER(LEFT(J21,3)),RIGHT(A21,3))</f>
+        <v>HY11ELABLA049</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A22,2)</f>
+        <v>FD</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B22,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A22,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D22,F$56:G$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f>MID(A22,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>IF(21-F22&lt;0,100-F22+21,21-F22)</f>
+        <v>13</v>
       </c>
       <c r="H22" s="3">
-        <v>93382.6</v>
+        <v>37558.800000000003</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="9"/>
-        <v>3973.7276595744684</v>
+        <f>H22/(G22+0.5)</f>
+        <v>2782.1333333333337</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L22">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H22&lt;=L22,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="8"/>
-        <v>TY98CAMBLA021</v>
+        <f>_xlfn.CONCAT(B22,F22,D22,UPPER(LEFT(J22,3)),RIGHT(A22,3))</f>
+        <v>FD08MTGBLA004</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A23,2)</f>
+        <v>FD</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B23,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A23,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D23,F$56:G$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f>MID(A23,3,2)</f>
+        <v>09</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f>IF(21-F23&lt;0,100-F23+21,21-F23)</f>
+        <v>12</v>
       </c>
       <c r="H23" s="3">
-        <v>85928</v>
+        <v>35137</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="9"/>
-        <v>3996.6511627906975</v>
+        <f>H23/(G23+0.5)</f>
+        <v>2810.96</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L23">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H23&lt;=L23,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="8"/>
-        <v>TY00CAMGRE022</v>
+        <f>_xlfn.CONCAT(B23,F23,D23,UPPER(LEFT(J23,3)),RIGHT(A23,3))</f>
+        <v>FD09FCSBLA008</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A24,2)</f>
+        <v>FD</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B24,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A24,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D24,F$56:G$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+        <f>MID(A24,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f>IF(21-F24&lt;0,100-F24+21,21-F24)</f>
+        <v>15</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44974.8</v>
+      </c>
+      <c r="I24" s="3">
+        <f>H24/(G24+0.5)</f>
+        <v>2901.6000000000004</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="3">
-        <v>67829.100000000006</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="9"/>
-        <v>3478.4153846153849</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
-      </c>
       <c r="L24">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H24&lt;=L24,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="8"/>
-        <v>TY02CAMBLA023</v>
+        <f>_xlfn.CONCAT(B24,F24,D24,UPPER(LEFT(J24,3)),RIGHT(A24,3))</f>
+        <v>FD06MTGWHI002</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A25,2)</f>
+        <v>CR</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B25,C$56:D$61,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A25,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D25,F$56:G$66,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(A25,3,2)</f>
+        <v>07</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(21-F25&lt;0,100-F25+21,21-F25)</f>
+        <v>14</v>
       </c>
       <c r="H25" s="3">
-        <v>48114.2</v>
+        <v>42074.2</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="9"/>
-        <v>3849.136</v>
+        <f>H25/(G25+0.5)</f>
+        <v>2901.6689655172413</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="L25">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H25&lt;=L25,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="8"/>
-        <v>TY09CAMWHI024</v>
+        <f>_xlfn.CONCAT(B25,F25,D25,UPPER(LEFT(J25,3)),RIGHT(A25,3))</f>
+        <v>CR07PTCGRE043</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A26,2)</f>
+        <v>HO</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B26,C$56:D$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A26,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="3"/>
-        <v>Corola</v>
+        <f>VLOOKUP(D26,F$56:G$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+        <f>MID(A26,3,2)</f>
+        <v>11</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f>IF(21-F26&lt;0,100-F26+21,21-F26)</f>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
-        <v>64467.4</v>
+        <v>30555.3</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="9"/>
-        <v>3306.020512820513</v>
+        <f>H26/(G26+0.5)</f>
+        <v>2910.0285714285715</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="L26">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H26&lt;=L26,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="8"/>
-        <v>TY02CORRED025</v>
+        <f>_xlfn.CONCAT(B26,F26,D26,UPPER(LEFT(J26,3)),RIGHT(A26,3))</f>
+        <v>HO11CIVBLA034</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A27,2)</f>
+        <v>HO</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B27,C$56:D$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A27,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="3"/>
-        <v>Corola</v>
+        <f>VLOOKUP(D27,F$56:G$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="4"/>
-        <v>03</v>
+        <f>MID(A27,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f>IF(21-F27&lt;0,100-F27+21,21-F27)</f>
+        <v>11</v>
       </c>
       <c r="H27" s="3">
-        <v>73444.399999999994</v>
+        <v>33477.199999999997</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="9"/>
-        <v>3969.9675675675671</v>
+        <f>H27/(G27+0.5)</f>
+        <v>2911.0608695652172</v>
       </c>
       <c r="J27" t="s">
         <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L27">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H27&lt;=L27,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="8"/>
-        <v>TY03CORBLA026</v>
+        <f>_xlfn.CONCAT(B27,F27,D27,UPPER(LEFT(J27,3)),RIGHT(A27,3))</f>
+        <v>HO10CIVBLA033</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A28,2)</f>
+        <v>FD</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B28,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A28,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="3"/>
-        <v>Corola</v>
+        <f>VLOOKUP(D28,F$56:G$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A28,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f>IF(21-F28&lt;0,100-F28+21,21-F28)</f>
+        <v>15</v>
       </c>
       <c r="H28" s="3">
-        <v>17556.3</v>
+        <v>46311.4</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="9"/>
-        <v>2340.8399999999997</v>
+        <f>H28/(G28+0.5)</f>
+        <v>2987.8322580645163</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L28">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H28&lt;=L28,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="8"/>
-        <v>TY14CORBLU027</v>
+        <f>_xlfn.CONCAT(B28,F28,D28,UPPER(LEFT(J28,3)),RIGHT(A28,3))</f>
+        <v>FD06FCSGRE006</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A29,2)</f>
+        <v>CR</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B29,C$56:D$61,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A29,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="3"/>
-        <v>Corola</v>
+        <f>VLOOKUP(D29,F$56:G$66,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A29,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>IF(21-F29&lt;0,100-F29+21,21-F29)</f>
+        <v>17</v>
       </c>
       <c r="H29" s="3">
-        <v>29601.9</v>
+        <v>52699.4</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="9"/>
-        <v>3115.9894736842107</v>
+        <f>H29/(G29+0.5)</f>
+        <v>3011.3942857142856</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L29">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H29&lt;=L29,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="8"/>
-        <v>TY12CORBLA028</v>
+        <f>_xlfn.CONCAT(B29,F29,D29,UPPER(LEFT(J29,3)),RIGHT(A29,3))</f>
+        <v>CR04CARRED048</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A30,2)</f>
         <v>TY</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B30,C$56:D$61,2)</f>
         <v>Toyota</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A30,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D30,F$56:G$66,2)</f>
+        <v>Corola</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A30,3,2)</f>
         <v>12</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f>IF(21-F30&lt;0,100-F30+21,21-F30)</f>
         <v>9</v>
       </c>
       <c r="H30" s="3">
-        <v>22128.2</v>
+        <v>29601.9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="9"/>
-        <v>2329.2842105263157</v>
+        <f>H30/(G30+0.5)</f>
+        <v>3115.9894736842107</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L30">
         <v>100000</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H30&lt;=L30,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="8"/>
-        <v>TY12CAMBLU029</v>
+        <f>_xlfn.CONCAT(B30,F30,D30,UPPER(LEFT(J30,3)),RIGHT(A30,3))</f>
+        <v>TY12CORBLA028</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A31,2)</f>
         <v>HO</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B31,C$56:D$61,2)</f>
         <v>Honda</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A31,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D31,F$56:G$66,2)</f>
+        <v>Odyssey</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="4"/>
-        <v>99</v>
+        <f>MID(A31,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f>IF(21-F31&lt;0,100-F31+21,21-F31)</f>
+        <v>13</v>
       </c>
       <c r="H31" s="3">
-        <v>82374</v>
+        <v>42504.6</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="9"/>
-        <v>3661.0666666666666</v>
+        <f>H31/(G31+0.5)</f>
+        <v>3148.4888888888886</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
@@ -5170,1181 +6550,1181 @@
         <v>38</v>
       </c>
       <c r="L31">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="7"/>
-        <v>Not Covered</v>
+        <f>IF(H31&lt;=L31,"Y","Not Covered")</f>
+        <v>Y</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="8"/>
-        <v>HO99CIVWHI030</v>
+        <f>_xlfn.CONCAT(B31,F31,D31,UPPER(LEFT(J31,3)),RIGHT(A31,3))</f>
+        <v>HO08ODYWHI039</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A32,2)</f>
+        <v>FD</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B32,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A32,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D32,F$56:G$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+        <f>MID(A32,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>IF(21-F32&lt;0,100-F32+21,21-F32)</f>
+        <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>69891.899999999994</v>
+        <v>27534.799999999999</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="9"/>
-        <v>3409.3609756097558</v>
+        <f>H32/(G32+0.5)</f>
+        <v>3239.3882352941177</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L32">
         <v>75000</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H32&lt;=L32,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="8"/>
-        <v>HO01CIVBLU031</v>
+        <f>_xlfn.CONCAT(B32,F32,D32,UPPER(LEFT(J32,3)),RIGHT(A32,3))</f>
+        <v>FD13FCSWHI010</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A33,2)</f>
+        <v>FD</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B33,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A33,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D33,F$56:G$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A33,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>IF(21-F33&lt;0,100-F33+21,21-F33)</f>
+        <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>22573</v>
+        <v>27637.1</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="9"/>
-        <v>1962.8695652173913</v>
+        <f>H33/(G33+0.5)</f>
+        <v>3251.4235294117643</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="L33">
         <v>75000</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H33&lt;=L33,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="8"/>
-        <v>HO10CIVBLU032</v>
+        <f>_xlfn.CONCAT(B33,F33,D33,UPPER(LEFT(J33,3)),RIGHT(A33,3))</f>
+        <v>FD13FCSBLA009</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A34,2)</f>
+        <v>TY</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B34,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A34,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D34,F$56:G$66,2)</f>
+        <v>Corola</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A34,3,2)</f>
+        <v>02</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>IF(21-F34&lt;0,100-F34+21,21-F34)</f>
+        <v>19</v>
       </c>
       <c r="H34" s="3">
-        <v>33477.199999999997</v>
+        <v>64467.4</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="9"/>
-        <v>2911.0608695652172</v>
+        <f>H34/(G34+0.5)</f>
+        <v>3306.020512820513</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L34">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H34&lt;=L34,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="8"/>
-        <v>HO10CIVBLA033</v>
+        <f>_xlfn.CONCAT(B34,F34,D34,UPPER(LEFT(J34,3)),RIGHT(A34,3))</f>
+        <v>TY02CORRED025</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A35,2)</f>
+        <v>FD</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B35,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A35,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D35,F$56:G$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>MID(A35,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IF(21-F35&lt;0,100-F35+21,21-F35)</f>
+        <v>13</v>
       </c>
       <c r="H35" s="3">
-        <v>30555.3</v>
+        <v>44946.5</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="9"/>
-        <v>2910.0285714285715</v>
+        <f>H35/(G35+0.5)</f>
+        <v>3329.3703703703704</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
         <v>22</v>
       </c>
       <c r="L35">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H35&lt;=L35,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="8"/>
-        <v>HO11CIVBLA034</v>
+        <f>_xlfn.CONCAT(B35,F35,D35,UPPER(LEFT(J35,3)),RIGHT(A35,3))</f>
+        <v>FD08MTGGRE003</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A36,2)</f>
         <v>HO</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B36,C$56:D$61,2)</f>
         <v>Honda</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A36,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D36,F$56:G$66,2)</f>
+        <v>Odyssey</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A36,3,2)</f>
+        <v>01</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>IF(21-F36&lt;0,100-F36+21,21-F36)</f>
+        <v>20</v>
       </c>
       <c r="H36" s="3">
-        <v>24513.200000000001</v>
+        <v>68658.899999999994</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="9"/>
-        <v>2580.3368421052633</v>
+        <f>H36/(G36+0.5)</f>
+        <v>3349.2146341463413</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="L36">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H36&lt;=L36,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="8"/>
-        <v>HO12CIVBLA035</v>
+        <f>_xlfn.CONCAT(B36,F36,D36,UPPER(LEFT(J36,3)),RIGHT(A36,3))</f>
+        <v>HO01ODYBLA040</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A37,2)</f>
+        <v>FD</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B37,C$56:D$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A37,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D37,F$56:G$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A37,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IF(21-F37&lt;0,100-F37+21,21-F37)</f>
+        <v>15</v>
       </c>
       <c r="H37" s="3">
-        <v>13867.6</v>
+        <v>52229.5</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="9"/>
-        <v>1631.4823529411765</v>
+        <f>H37/(G37+0.5)</f>
+        <v>3369.6451612903224</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L37">
         <v>75000</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H37&lt;=L37,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="8"/>
-        <v>HO13CIVBLA036</v>
+        <f>_xlfn.CONCAT(B37,F37,D37,UPPER(LEFT(J37,3)),RIGHT(A37,3))</f>
+        <v>FD06FCSGRE007</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A38,2)</f>
         <v>HO</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B38,C$56:D$61,2)</f>
         <v>Honda</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A38,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D38,F$56:G$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+        <f>MID(A38,3,2)</f>
+        <v>01</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>IF(21-F38&lt;0,100-F38+21,21-F38)</f>
+        <v>20</v>
       </c>
       <c r="H38" s="3">
-        <v>60389.5</v>
+        <v>69891.899999999994</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="9"/>
-        <v>3659.969696969697</v>
+        <f>H38/(G38+0.5)</f>
+        <v>3409.3609756097558</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L38">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H38&lt;=L38,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="8"/>
-        <v>HO05ODYWHI037</v>
+        <f>_xlfn.CONCAT(B38,F38,D38,UPPER(LEFT(J38,3)),RIGHT(A38,3))</f>
+        <v>HO01CIVBLU031</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A39,2)</f>
+        <v>TY</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B39,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A39,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D39,F$56:G$66,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
+        <f>MID(A39,3,2)</f>
+        <v>02</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>IF(21-F39&lt;0,100-F39+21,21-F39)</f>
+        <v>19</v>
       </c>
       <c r="H39" s="3">
-        <v>50854.1</v>
+        <v>67829.100000000006</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="9"/>
-        <v>3507.1793103448276</v>
+        <f>H39/(G39+0.5)</f>
+        <v>3478.4153846153849</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="L39">
         <v>100000</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H39&lt;=L39,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="8"/>
-        <v>HO07ODYBLA038</v>
+        <f>_xlfn.CONCAT(B39,F39,D39,UPPER(LEFT(J39,3)),RIGHT(A39,3))</f>
+        <v>TY02CAMBLA023</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A40,2)</f>
         <v>HO</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B40,C$56:D$61,2)</f>
         <v>Honda</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A40,5,3)</f>
         <v>ODY</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D40,F$56:G$66,2)</f>
         <v>Odyssey</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A40,3,2)</f>
+        <v>07</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(21-F40&lt;0,100-F40+21,21-F40)</f>
+        <v>14</v>
       </c>
       <c r="H40" s="3">
-        <v>42504.6</v>
+        <v>50854.1</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="9"/>
-        <v>3148.4888888888886</v>
+        <f>H40/(G40+0.5)</f>
+        <v>3507.1793103448276</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L40">
         <v>100000</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H40&lt;=L40,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="8"/>
-        <v>HO08ODYWHI039</v>
+        <f>_xlfn.CONCAT(B40,F40,D40,UPPER(LEFT(J40,3)),RIGHT(A40,3))</f>
+        <v>HO07ODYBLA038</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A41,2)</f>
+        <v>CR</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B41,C$56:D$61,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A41,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D41,F$56:G$66,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+        <f>MID(A41,3,2)</f>
+        <v>99</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>IF(21-F41&lt;0,100-F41+21,21-F41)</f>
+        <v>22</v>
       </c>
       <c r="H41" s="3">
-        <v>68658.899999999994</v>
+        <v>79420.600000000006</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="9"/>
-        <v>3349.2146341463413</v>
+        <f>H41/(G41+0.5)</f>
+        <v>3529.8044444444449</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="L41">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H41&lt;=L41,"Y","Not Covered")</f>
+        <v>Not Covered</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="8"/>
-        <v>HO01ODYBLA040</v>
+        <f>_xlfn.CONCAT(B41,F41,D41,UPPER(LEFT(J41,3)),RIGHT(A41,3))</f>
+        <v>CR99CARGRE045</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A42,2)</f>
+        <v>GM</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B42,C$56:D$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A42,5,3)</f>
+        <v>SLV</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D42,F$56:G$66,2)</f>
+        <v>Silverado</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A42,3,2)</f>
+        <v>98</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f>IF(21-F42&lt;0,100-F42+21,21-F42)</f>
+        <v>23</v>
       </c>
       <c r="H42" s="3">
-        <v>3708.1</v>
+        <v>83162.7</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="9"/>
-        <v>494.4133333333333</v>
+        <f>H42/(G42+0.5)</f>
+        <v>3538.8382978723403</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L42">
         <v>100000</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H42&lt;=L42,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="8"/>
-        <v>HO14ODYBLA041</v>
+        <f>_xlfn.CONCAT(B42,F42,D42,UPPER(LEFT(J42,3)),RIGHT(A42,3))</f>
+        <v>GM98SLVBLA018</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A43,2)</f>
         <v>CR</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B43,C$56:D$61,2)</f>
         <v>Chrysler</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A43,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D43,F$56:G$66,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A43,3,2)</f>
+        <v>00</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>IF(21-F43&lt;0,100-F43+21,21-F43)</f>
+        <v>21</v>
       </c>
       <c r="H43" s="3">
-        <v>64542</v>
+        <v>77243.100000000006</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="9"/>
-        <v>3688.1142857142859</v>
+        <f>H43/(G43+0.5)</f>
+        <v>3592.7023255813956</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K43" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L43">
         <v>75000</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H43&lt;=L43,"Y","Not Covered")</f>
+        <v>Not Covered</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04PTCBLU042</v>
+        <f>_xlfn.CONCAT(B43,F43,D43,UPPER(LEFT(J43,3)),RIGHT(A43,3))</f>
+        <v>CR00CARBLA046</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A44,2)</f>
+        <v>HO</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B44,C$56:D$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A44,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D44,F$56:G$66,2)</f>
+        <v>Odyssey</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
+        <f>MID(A44,3,2)</f>
+        <v>05</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>IF(21-F44&lt;0,100-F44+21,21-F44)</f>
+        <v>16</v>
       </c>
       <c r="H44" s="3">
-        <v>42074.2</v>
+        <v>60389.5</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="9"/>
-        <v>2901.6689655172413</v>
+        <f>H44/(G44+0.5)</f>
+        <v>3659.969696969697</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L44">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H44&lt;=L44,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="8"/>
-        <v>CR07PTCGRE043</v>
+        <f>_xlfn.CONCAT(B44,F44,D44,UPPER(LEFT(J44,3)),RIGHT(A44,3))</f>
+        <v>HO05ODYWHI037</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A45,2)</f>
+        <v>HO</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B45,C$56:D$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A45,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D45,F$56:G$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>MID(A45,3,2)</f>
+        <v>99</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IF(21-F45&lt;0,100-F45+21,21-F45)</f>
+        <v>22</v>
       </c>
       <c r="H45" s="3">
-        <v>27394.2</v>
+        <v>82374</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="9"/>
-        <v>2608.9714285714285</v>
+        <f>H45/(G45+0.5)</f>
+        <v>3661.0666666666666</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L45">
         <v>75000</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H45&lt;=L45,"Y","Not Covered")</f>
+        <v>Not Covered</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="8"/>
-        <v>CR11PTCBLA044</v>
+        <f>_xlfn.CONCAT(B45,F45,D45,UPPER(LEFT(J45,3)),RIGHT(A45,3))</f>
+        <v>HO99CIVWHI030</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A46,2)</f>
         <v>CR</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B46,C$56:D$61,2)</f>
         <v>Chrysler</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A46,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D46,F$56:G$66,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="4"/>
-        <v>99</v>
+        <f>MID(A46,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f>IF(21-F46&lt;0,100-F46+21,21-F46)</f>
+        <v>17</v>
       </c>
       <c r="H46" s="3">
-        <v>79420.600000000006</v>
+        <v>64542</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="9"/>
-        <v>3529.8044444444449</v>
+        <f>H46/(G46+0.5)</f>
+        <v>3688.1142857142859</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="L46">
         <v>75000</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="7"/>
-        <v>Not Covered</v>
+        <f>IF(H46&lt;=L46,"Y","Not Covered")</f>
+        <v>Y</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="8"/>
-        <v>CR99CARGRE045</v>
+        <f>_xlfn.CONCAT(B46,F46,D46,UPPER(LEFT(J46,3)),RIGHT(A46,3))</f>
+        <v>CR04PTCBLU042</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A47,2)</f>
+        <v>GM</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B47,C$56:D$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A47,5,3)</f>
+        <v>SLV</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D47,F$56:G$66,2)</f>
+        <v>Silverado</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A47,3,2)</f>
         <v>00</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f>IF(21-F47&lt;0,100-F47+21,21-F47)</f>
         <v>21</v>
       </c>
       <c r="H47" s="3">
-        <v>77243.100000000006</v>
+        <v>80685.8</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="9"/>
-        <v>3592.7023255813956</v>
+        <f>H47/(G47+0.5)</f>
+        <v>3752.8279069767445</v>
       </c>
       <c r="J47" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L47">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="7"/>
-        <v>Not Covered</v>
+        <f>IF(H47&lt;=L47,"Y","Not Covered")</f>
+        <v>Y</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="8"/>
-        <v>CR00CARBLA046</v>
+        <f>_xlfn.CONCAT(B47,F47,D47,UPPER(LEFT(J47,3)),RIGHT(A47,3))</f>
+        <v>GM00SLVBLU019</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A48,2)</f>
+        <v>TY</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B48,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A48,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D48,F$56:G$66,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A48,3,2)</f>
+        <v>09</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>IF(21-F48&lt;0,100-F48+21,21-F48)</f>
+        <v>12</v>
       </c>
       <c r="H48" s="3">
-        <v>72527.199999999997</v>
+        <v>48114.2</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="9"/>
-        <v>4144.4114285714286</v>
+        <f>H48/(G48+0.5)</f>
+        <v>3849.136</v>
       </c>
       <c r="J48" t="s">
         <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L48">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H48&lt;=L48,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04CARWHI047</v>
+        <f>_xlfn.CONCAT(B48,F48,D48,UPPER(LEFT(J48,3)),RIGHT(A48,3))</f>
+        <v>TY09CAMWHI024</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A49,2)</f>
+        <v>TY</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B49,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A49,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D49,F$56:G$66,2)</f>
+        <v>Corola</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A49,3,2)</f>
+        <v>03</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>IF(21-F49&lt;0,100-F49+21,21-F49)</f>
+        <v>18</v>
       </c>
       <c r="H49" s="3">
-        <v>52699.4</v>
+        <v>73444.399999999994</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="9"/>
-        <v>3011.3942857142856</v>
+        <f>H49/(G49+0.5)</f>
+        <v>3969.9675675675671</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="L49">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H49&lt;=L49,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04CARRED048</v>
+        <f>_xlfn.CONCAT(B49,F49,D49,UPPER(LEFT(J49,3)),RIGHT(A49,3))</f>
+        <v>TY03CORBLA026</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A50,2)</f>
+        <v>TY</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
-        <v>Hundai</v>
+        <f>VLOOKUP(B50,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A50,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D50,F$56:G$66,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>MID(A50,3,2)</f>
+        <v>98</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IF(21-F50&lt;0,100-F50+21,21-F50)</f>
+        <v>23</v>
       </c>
       <c r="H50" s="3">
-        <v>29102.3</v>
+        <v>93382.6</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="9"/>
-        <v>2771.6476190476192</v>
+        <f>H50/(G50+0.5)</f>
+        <v>3973.7276595744684</v>
       </c>
       <c r="J50" t="s">
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L50">
         <v>100000</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H50&lt;=L50,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="8"/>
-        <v>HY11ELABLA049</v>
+        <f>_xlfn.CONCAT(B50,F50,D50,UPPER(LEFT(J50,3)),RIGHT(A50,3))</f>
+        <v>TY98CAMBLA021</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A51,2)</f>
+        <v>TY</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
-        <v>Hundai</v>
+        <f>VLOOKUP(B51,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A51,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D51,F$56:G$66,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A51,3,2)</f>
+        <v>00</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>IF(21-F51&lt;0,100-F51+21,21-F51)</f>
+        <v>21</v>
       </c>
       <c r="H51" s="3">
-        <v>22282</v>
+        <v>85928</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="9"/>
-        <v>2345.4736842105262</v>
+        <f>H51/(G51+0.5)</f>
+        <v>3996.6511627906975</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L51">
         <v>100000</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H51&lt;=L51,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="8"/>
-        <v>HY12ELABLU050</v>
+        <f>_xlfn.CONCAT(B51,F51,D51,UPPER(LEFT(J51,3)),RIGHT(A51,3))</f>
+        <v>TY00CAMGRE022</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A52,2)</f>
+        <v>CR</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
-        <v>Hundai</v>
+        <f>VLOOKUP(B52,C$56:D$61,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A52,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D52,F$56:G$66,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A52,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IF(21-F52&lt;0,100-F52+21,21-F52)</f>
+        <v>17</v>
       </c>
       <c r="H52" s="3">
-        <v>20223.900000000001</v>
+        <v>72527.199999999997</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="9"/>
-        <v>2379.2823529411767</v>
+        <f>H52/(G52+0.5)</f>
+        <v>4144.4114285714286</v>
       </c>
       <c r="J52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L52">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H52&lt;=L52,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="8"/>
-        <v>HY13ELABLA051</v>
+        <f>_xlfn.CONCAT(B52,F52,D52,UPPER(LEFT(J52,3)),RIGHT(A52,3))</f>
+        <v>CR04CARWHI047</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A53,2)</f>
+        <v>TY</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
-        <v>Hundai</v>
+        <f>VLOOKUP(B53,C$56:D$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A53,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D53,F$56:G$66,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A53,3,2)</f>
+        <v>96</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IF(21-F53&lt;0,100-F53+21,21-F53)</f>
+        <v>25</v>
       </c>
       <c r="H53" s="3">
-        <v>22188.5</v>
+        <v>114660.6</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="9"/>
-        <v>2610.4117647058824</v>
+        <f>H53/(G53+0.5)</f>
+        <v>4496.4941176470593</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="L53">
         <v>100000</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H53&lt;=L53,"Y","Not Covered")</f>
+        <v>Not Covered</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="8"/>
-        <v>HY13ELABLU052</v>
+        <f>_xlfn.CONCAT(B53,F53,D53,UPPER(LEFT(J53,3)),RIGHT(A53,3))</f>
+        <v>TY96CAMGRE020</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -6472,9 +7852,22 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F56:G66">
-    <sortCondition ref="F56:F66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N53">
+    <sortCondition ref="I2:I53"/>
   </sortState>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>